--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.78646733333333</v>
+        <v>46.62552400000001</v>
       </c>
       <c r="H2">
-        <v>110.359402</v>
+        <v>139.876572</v>
       </c>
       <c r="I2">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="J2">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.542241666666667</v>
+        <v>2.326231</v>
       </c>
       <c r="N2">
-        <v>7.626725</v>
+        <v>6.978693</v>
       </c>
       <c r="O2">
-        <v>0.09274333764602767</v>
+        <v>0.0902108727640205</v>
       </c>
       <c r="P2">
-        <v>0.09274333764602768</v>
+        <v>0.09021087276402051</v>
       </c>
       <c r="Q2">
-        <v>93.52009002427221</v>
+        <v>108.461739320044</v>
       </c>
       <c r="R2">
-        <v>841.6808102184499</v>
+        <v>976.155653880396</v>
       </c>
       <c r="S2">
-        <v>0.01462508619014776</v>
+        <v>0.01787399375818935</v>
       </c>
       <c r="T2">
-        <v>0.01462508619014776</v>
+        <v>0.01787399375818935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.78646733333333</v>
+        <v>46.62552400000001</v>
       </c>
       <c r="H3">
-        <v>110.359402</v>
+        <v>139.876572</v>
       </c>
       <c r="I3">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="J3">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.721957</v>
       </c>
       <c r="O3">
-        <v>0.4222297489134398</v>
+        <v>0.4488373460538801</v>
       </c>
       <c r="P3">
-        <v>0.4222297489134399</v>
+        <v>0.4488373460538801</v>
       </c>
       <c r="Q3">
-        <v>425.7660456433015</v>
+        <v>539.6431464768227</v>
       </c>
       <c r="R3">
-        <v>3831.894410789714</v>
+        <v>4856.788318291404</v>
       </c>
       <c r="S3">
-        <v>0.06658318135446138</v>
+        <v>0.08893069844025508</v>
       </c>
       <c r="T3">
-        <v>0.0665831813544614</v>
+        <v>0.08893069844025507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.78646733333333</v>
+        <v>46.62552400000001</v>
       </c>
       <c r="H4">
-        <v>110.359402</v>
+        <v>139.876572</v>
       </c>
       <c r="I4">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="J4">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.132418333333334</v>
+        <v>8.667390666666668</v>
       </c>
       <c r="N4">
-        <v>27.397255</v>
+        <v>26.002172</v>
       </c>
       <c r="O4">
-        <v>0.3331591044700472</v>
+        <v>0.3361200485363344</v>
       </c>
       <c r="P4">
-        <v>0.3331591044700472</v>
+        <v>0.3361200485363344</v>
       </c>
       <c r="Q4">
-        <v>335.9494086935011</v>
+        <v>404.1216315460427</v>
       </c>
       <c r="R4">
-        <v>3023.54467824151</v>
+        <v>3637.094683914384</v>
       </c>
       <c r="S4">
-        <v>0.05253725757103564</v>
+        <v>0.06659737862481788</v>
       </c>
       <c r="T4">
-        <v>0.05253725757103564</v>
+        <v>0.06659737862481785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.78646733333333</v>
+        <v>46.62552400000001</v>
       </c>
       <c r="H5">
-        <v>110.359402</v>
+        <v>139.876572</v>
       </c>
       <c r="I5">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="J5">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.162937</v>
+        <v>3.218985</v>
       </c>
       <c r="N5">
-        <v>12.488811</v>
+        <v>9.656955</v>
       </c>
       <c r="O5">
-        <v>0.1518678089704853</v>
+        <v>0.124831732645765</v>
       </c>
       <c r="P5">
-        <v>0.1518678089704853</v>
+        <v>0.124831732645765</v>
       </c>
       <c r="Q5">
-        <v>153.1397459612247</v>
+        <v>150.08686237314</v>
       </c>
       <c r="R5">
-        <v>1378.257713651022</v>
+        <v>1350.78176135826</v>
       </c>
       <c r="S5">
-        <v>0.02394867223971829</v>
+        <v>0.02473362181043291</v>
       </c>
       <c r="T5">
-        <v>0.02394867223971829</v>
+        <v>0.02473362181043291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>311.757874</v>
       </c>
       <c r="I6">
-        <v>0.445475481188675</v>
+        <v>0.441606206212991</v>
       </c>
       <c r="J6">
-        <v>0.445475481188675</v>
+        <v>0.4416062062129909</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.542241666666667</v>
+        <v>2.326231</v>
       </c>
       <c r="N6">
-        <v>7.626725</v>
+        <v>6.978693</v>
       </c>
       <c r="O6">
-        <v>0.09274333764602767</v>
+        <v>0.0902108727640205</v>
       </c>
       <c r="P6">
-        <v>0.09274333764602768</v>
+        <v>0.09021087276402051</v>
       </c>
       <c r="Q6">
-        <v>264.1879523980722</v>
+        <v>241.7402769976313</v>
       </c>
       <c r="R6">
-        <v>2377.69157158265</v>
+        <v>2175.662492978682</v>
       </c>
       <c r="S6">
-        <v>0.04131488296490794</v>
+        <v>0.03983768128048193</v>
       </c>
       <c r="T6">
-        <v>0.04131488296490794</v>
+        <v>0.03983768128048193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>311.757874</v>
       </c>
       <c r="I7">
-        <v>0.445475481188675</v>
+        <v>0.441606206212991</v>
       </c>
       <c r="J7">
-        <v>0.445475481188675</v>
+        <v>0.4416062062129909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>34.721957</v>
       </c>
       <c r="O7">
-        <v>0.4222297489134398</v>
+        <v>0.4488373460538801</v>
       </c>
       <c r="P7">
-        <v>0.4222297489134399</v>
+        <v>0.4488373460538801</v>
       </c>
       <c r="Q7">
-        <v>1202.760388382158</v>
+        <v>1202.760388382157</v>
       </c>
       <c r="R7">
         <v>10824.84349543942</v>
       </c>
       <c r="S7">
-        <v>0.188093000569388</v>
+        <v>0.1982093575975614</v>
       </c>
       <c r="T7">
-        <v>0.1880930005693881</v>
+        <v>0.1982093575975614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>311.757874</v>
       </c>
       <c r="I8">
-        <v>0.445475481188675</v>
+        <v>0.441606206212991</v>
       </c>
       <c r="J8">
-        <v>0.445475481188675</v>
+        <v>0.4416062062129909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.132418333333334</v>
+        <v>8.667390666666668</v>
       </c>
       <c r="N8">
-        <v>27.397255</v>
+        <v>26.002172</v>
       </c>
       <c r="O8">
-        <v>0.3331591044700472</v>
+        <v>0.3361200485363344</v>
       </c>
       <c r="P8">
-        <v>0.3331591044700472</v>
+        <v>0.3361200485363344</v>
       </c>
       <c r="Q8">
-        <v>949.0344413595411</v>
+        <v>900.7090957891477</v>
       </c>
       <c r="R8">
-        <v>8541.309972235871</v>
+        <v>8106.381862102329</v>
       </c>
       <c r="S8">
-        <v>0.1484142123761823</v>
+        <v>0.148432699466257</v>
       </c>
       <c r="T8">
-        <v>0.1484142123761823</v>
+        <v>0.148432699466257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>311.757874</v>
       </c>
       <c r="I9">
-        <v>0.445475481188675</v>
+        <v>0.441606206212991</v>
       </c>
       <c r="J9">
-        <v>0.445475481188675</v>
+        <v>0.4416062062129909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.162937</v>
+        <v>3.218985</v>
       </c>
       <c r="N9">
-        <v>12.488811</v>
+        <v>9.656955</v>
       </c>
       <c r="O9">
-        <v>0.1518678089704853</v>
+        <v>0.124831732645765</v>
       </c>
       <c r="P9">
-        <v>0.1518678089704853</v>
+        <v>0.124831732645765</v>
       </c>
       <c r="Q9">
-        <v>432.6094629053127</v>
+        <v>334.51464001263</v>
       </c>
       <c r="R9">
-        <v>3893.485166147814</v>
+        <v>3010.63176011367</v>
       </c>
       <c r="S9">
-        <v>0.06765338527819673</v>
+        <v>0.05512646786869065</v>
       </c>
       <c r="T9">
-        <v>0.06765338527819673</v>
+        <v>0.05512646786869065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.51716233333334</v>
+        <v>49.27528633333333</v>
       </c>
       <c r="H10">
-        <v>148.551487</v>
+        <v>147.825859</v>
       </c>
       <c r="I10">
-        <v>0.2122674378791094</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="J10">
-        <v>0.2122674378791094</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.542241666666667</v>
+        <v>2.326231</v>
       </c>
       <c r="N10">
-        <v>7.626725</v>
+        <v>6.978693</v>
       </c>
       <c r="O10">
-        <v>0.09274333764602767</v>
+        <v>0.0902108727640205</v>
       </c>
       <c r="P10">
-        <v>0.09274333764602768</v>
+        <v>0.09021087276402051</v>
       </c>
       <c r="Q10">
-        <v>125.8845932988972</v>
+        <v>114.6256986024763</v>
       </c>
       <c r="R10">
-        <v>1132.961339690075</v>
+        <v>1031.631287422287</v>
       </c>
       <c r="S10">
-        <v>0.01968639066247944</v>
+        <v>0.01888978578246097</v>
       </c>
       <c r="T10">
-        <v>0.01968639066247945</v>
+        <v>0.01888978578246097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.51716233333334</v>
+        <v>49.27528633333333</v>
       </c>
       <c r="H11">
-        <v>148.551487</v>
+        <v>147.825859</v>
       </c>
       <c r="I11">
-        <v>0.2122674378791094</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="J11">
-        <v>0.2122674378791094</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.721957</v>
       </c>
       <c r="O11">
-        <v>0.4222297489134398</v>
+        <v>0.4488373460538801</v>
       </c>
       <c r="P11">
-        <v>0.4222297489134399</v>
+        <v>0.4488373460538801</v>
       </c>
       <c r="Q11">
-        <v>573.1109271000066</v>
+        <v>570.3114577428958</v>
       </c>
       <c r="R11">
-        <v>5157.99834390006</v>
+        <v>5132.803119686062</v>
       </c>
       <c r="S11">
-        <v>0.08962562699819554</v>
+        <v>0.09398469450910382</v>
       </c>
       <c r="T11">
-        <v>0.08962562699819555</v>
+        <v>0.09398469450910381</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.51716233333334</v>
+        <v>49.27528633333333</v>
       </c>
       <c r="H12">
-        <v>148.551487</v>
+        <v>147.825859</v>
       </c>
       <c r="I12">
-        <v>0.2122674378791094</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="J12">
-        <v>0.2122674378791094</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.132418333333334</v>
+        <v>8.667390666666668</v>
       </c>
       <c r="N12">
-        <v>27.397255</v>
+        <v>26.002172</v>
       </c>
       <c r="O12">
-        <v>0.3331591044700472</v>
+        <v>0.3361200485363344</v>
       </c>
       <c r="P12">
-        <v>0.3331591044700472</v>
+        <v>0.3361200485363344</v>
       </c>
       <c r="Q12">
-        <v>452.2114411075762</v>
+        <v>427.0881568628609</v>
       </c>
       <c r="R12">
-        <v>4069.902969968186</v>
+        <v>3843.793411765748</v>
       </c>
       <c r="S12">
-        <v>0.07071882951195545</v>
+        <v>0.07038215593646331</v>
       </c>
       <c r="T12">
-        <v>0.07071882951195545</v>
+        <v>0.0703821559364633</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.51716233333334</v>
+        <v>49.27528633333333</v>
       </c>
       <c r="H13">
-        <v>148.551487</v>
+        <v>147.825859</v>
       </c>
       <c r="I13">
-        <v>0.2122674378791094</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="J13">
-        <v>0.2122674378791094</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.162937</v>
+        <v>3.218985</v>
       </c>
       <c r="N13">
-        <v>12.488811</v>
+        <v>9.656955</v>
       </c>
       <c r="O13">
-        <v>0.1518678089704853</v>
+        <v>0.124831732645765</v>
       </c>
       <c r="P13">
-        <v>0.1518678089704853</v>
+        <v>0.124831732645765</v>
       </c>
       <c r="Q13">
-        <v>206.1368272124397</v>
+        <v>158.616407577705</v>
       </c>
       <c r="R13">
-        <v>1855.231444911957</v>
+        <v>1427.547668199345</v>
       </c>
       <c r="S13">
-        <v>0.03223659070647894</v>
+        <v>0.02613925147027752</v>
       </c>
       <c r="T13">
-        <v>0.03223659070647894</v>
+        <v>0.02613925147027751</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.05432033333333</v>
+        <v>35.50107333333333</v>
       </c>
       <c r="H14">
-        <v>129.162961</v>
+        <v>106.50322</v>
       </c>
       <c r="I14">
-        <v>0.1845628835768525</v>
+        <v>0.1508622134550082</v>
       </c>
       <c r="J14">
-        <v>0.1845628835768525</v>
+        <v>0.1508622134550081</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.542241666666667</v>
+        <v>2.326231</v>
       </c>
       <c r="N14">
-        <v>7.626725</v>
+        <v>6.978693</v>
       </c>
       <c r="O14">
-        <v>0.09274333764602767</v>
+        <v>0.0902108727640205</v>
       </c>
       <c r="P14">
-        <v>0.09274333764602768</v>
+        <v>0.09021087276402051</v>
       </c>
       <c r="Q14">
-        <v>109.4544870814139</v>
+        <v>82.58369732127332</v>
       </c>
       <c r="R14">
-        <v>985.0903837327249</v>
+        <v>743.25327589146</v>
       </c>
       <c r="S14">
-        <v>0.01711697782849253</v>
+        <v>0.01360941194288824</v>
       </c>
       <c r="T14">
-        <v>0.01711697782849253</v>
+        <v>0.01360941194288824</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.05432033333333</v>
+        <v>35.50107333333333</v>
       </c>
       <c r="H15">
-        <v>129.162961</v>
+        <v>106.50322</v>
       </c>
       <c r="I15">
-        <v>0.1845628835768525</v>
+        <v>0.1508622134550082</v>
       </c>
       <c r="J15">
-        <v>0.1845628835768525</v>
+        <v>0.1508622134550081</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.721957</v>
       </c>
       <c r="O15">
-        <v>0.4222297489134398</v>
+        <v>0.4488373460538801</v>
       </c>
       <c r="P15">
-        <v>0.4222297489134399</v>
+        <v>0.4488373460538801</v>
       </c>
       <c r="Q15">
-        <v>498.3100864260752</v>
+        <v>410.8889139112821</v>
       </c>
       <c r="R15">
-        <v>4484.790777834677</v>
+        <v>3698.00022520154</v>
       </c>
       <c r="S15">
-        <v>0.07792793999139487</v>
+        <v>0.06771259550695982</v>
       </c>
       <c r="T15">
-        <v>0.07792793999139488</v>
+        <v>0.06771259550695982</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.05432033333333</v>
+        <v>35.50107333333333</v>
       </c>
       <c r="H16">
-        <v>129.162961</v>
+        <v>106.50322</v>
       </c>
       <c r="I16">
-        <v>0.1845628835768525</v>
+        <v>0.1508622134550082</v>
       </c>
       <c r="J16">
-        <v>0.1845628835768525</v>
+        <v>0.1508622134550081</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.132418333333334</v>
+        <v>8.667390666666668</v>
       </c>
       <c r="N16">
-        <v>27.397255</v>
+        <v>26.002172</v>
       </c>
       <c r="O16">
-        <v>0.3331591044700472</v>
+        <v>0.3361200485363344</v>
       </c>
       <c r="P16">
-        <v>0.3331591044700472</v>
+        <v>0.3361200485363344</v>
       </c>
       <c r="Q16">
-        <v>393.1900643413395</v>
+        <v>307.7016716659822</v>
       </c>
       <c r="R16">
-        <v>3538.710579072055</v>
+        <v>2769.31504499384</v>
       </c>
       <c r="S16">
-        <v>0.06148880501087376</v>
+        <v>0.05070781450879618</v>
       </c>
       <c r="T16">
-        <v>0.06148880501087376</v>
+        <v>0.05070781450879617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.05432033333333</v>
+        <v>35.50107333333333</v>
       </c>
       <c r="H17">
-        <v>129.162961</v>
+        <v>106.50322</v>
       </c>
       <c r="I17">
-        <v>0.1845628835768525</v>
+        <v>0.1508622134550082</v>
       </c>
       <c r="J17">
-        <v>0.1845628835768525</v>
+        <v>0.1508622134550081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.162937</v>
+        <v>3.218985</v>
       </c>
       <c r="N17">
-        <v>12.488811</v>
+        <v>9.656955</v>
       </c>
       <c r="O17">
-        <v>0.1518678089704853</v>
+        <v>0.124831732645765</v>
       </c>
       <c r="P17">
-        <v>0.1518678089704853</v>
+        <v>0.124831732645765</v>
       </c>
       <c r="Q17">
-        <v>179.2324231254857</v>
+        <v>114.2774225439</v>
       </c>
       <c r="R17">
-        <v>1613.091808129371</v>
+        <v>1028.4968028951</v>
       </c>
       <c r="S17">
-        <v>0.02802916074609136</v>
+        <v>0.01883239149636391</v>
       </c>
       <c r="T17">
-        <v>0.02802916074609136</v>
+        <v>0.01883239149636391</v>
       </c>
     </row>
   </sheetData>
